--- a/Team-Data/2013-14/12-11-2013-14.xlsx
+++ b/Team-Data/2013-14/12-11-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -762,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -771,13 +838,13 @@
         <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN2" t="n">
         <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>20</v>
@@ -786,10 +853,10 @@
         <v>19</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -816,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -848,31 +915,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.417</v>
+        <v>0.435</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M3" t="n">
         <v>18.4</v>
@@ -884,10 +951,10 @@
         <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.764</v>
       </c>
       <c r="R3" t="n">
         <v>10.3</v>
@@ -899,13 +966,13 @@
         <v>41.1</v>
       </c>
       <c r="U3" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
@@ -914,25 +981,25 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>20</v>
@@ -944,10 +1011,10 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="n">
         <v>22</v>
@@ -983,13 +1050,13 @@
         <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-7.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1132,13 +1199,13 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
@@ -1150,31 +1217,31 @@
         <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW4" t="n">
         <v>27</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -1212,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.455</v>
+        <v>0.476</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="J5" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.412</v>
+        <v>0.414</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.292</v>
+        <v>0.295</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P5" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.714</v>
+        <v>0.707</v>
       </c>
       <c r="R5" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S5" t="n">
         <v>32.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U5" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="V5" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W5" t="n">
         <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.5</v>
+        <v>90.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
         <v>14</v>
       </c>
-      <c r="AF5" t="n">
-        <v>18</v>
-      </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1329,13 +1396,13 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>13</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>13</v>
@@ -1350,16 +1417,16 @@
         <v>28</v>
       </c>
       <c r="AX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>8</v>
       </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>6</v>
-      </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -1394,70 +1461,70 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.421</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>35.2</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>82.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.424</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="n">
         <v>5.2</v>
       </c>
       <c r="M6" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.326</v>
+        <v>0.329</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.5</v>
       </c>
       <c r="P6" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S6" t="n">
         <v>33.5</v>
       </c>
       <c r="T6" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="V6" t="n">
-        <v>16.8</v>
+        <v>16.4</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z6" t="n">
         <v>19.9</v>
@@ -1466,19 +1533,19 @@
         <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1487,13 +1554,13 @@
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1502,49 +1569,49 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
         <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
         <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
@@ -1669,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
@@ -1684,25 +1751,25 @@
         <v>22</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>16</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
         <v>27</v>
@@ -1714,19 +1781,19 @@
         <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA7" t="n">
         <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J8" t="n">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>8.699999999999999</v>
@@ -1788,28 +1855,28 @@
         <v>22.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T8" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V8" t="n">
         <v>14.7</v>
@@ -1818,22 +1885,22 @@
         <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>103</v>
+        <v>103.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD8" t="n">
         <v>3</v>
@@ -1842,10 +1909,10 @@
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
@@ -1854,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>8</v>
@@ -1869,49 +1936,49 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
       </c>
       <c r="AR8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT8" t="n">
         <v>26</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>25</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2033,31 +2100,31 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="n">
         <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>4</v>
@@ -2066,16 +2133,16 @@
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2090,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="BB9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.435</v>
+        <v>0.455</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
-        <v>84.7</v>
+        <v>84.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M10" t="n">
         <v>20.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.314</v>
+        <v>0.318</v>
       </c>
       <c r="O10" t="n">
         <v>16.8</v>
@@ -2161,79 +2228,79 @@
         <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.67</v>
+        <v>0.672</v>
       </c>
       <c r="R10" t="n">
         <v>14</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
         <v>44.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W10" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
         <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH10" t="n">
         <v>19</v>
       </c>
-      <c r="AH10" t="n">
-        <v>14</v>
-      </c>
       <c r="AI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>9</v>
@@ -2245,22 +2312,22 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2269,13 +2336,13 @@
         <v>11</v>
       </c>
       <c r="BA10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.545</v>
       </c>
       <c r="H11" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J11" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.467</v>
+        <v>0.469</v>
       </c>
       <c r="L11" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.729</v>
+        <v>0.733</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T11" t="n">
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="U11" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V11" t="n">
         <v>17</v>
@@ -2370,13 +2437,13 @@
         <v>4.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.7</v>
+        <v>103</v>
       </c>
       <c r="AC11" t="n">
         <v>3.1</v>
@@ -2385,25 +2452,25 @@
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2415,25 +2482,25 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>28</v>
@@ -2442,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -2451,10 +2518,10 @@
         <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>6.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>16</v>
@@ -2615,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2630,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2767,10 +2834,10 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
@@ -2779,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2794,28 +2861,28 @@
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.652</v>
+        <v>0.636</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>82</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M14" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="N14" t="n">
-        <v>0.329</v>
+        <v>0.328</v>
       </c>
       <c r="O14" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.705</v>
+        <v>0.709</v>
       </c>
       <c r="R14" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="V14" t="n">
         <v>14.5</v>
@@ -2916,22 +2983,22 @@
         <v>3.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>24.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD14" t="n">
         <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2940,19 +3007,19 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
@@ -2961,40 +3028,40 @@
         <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
         <v>14</v>
       </c>
-      <c r="AF15" t="n">
-        <v>13</v>
-      </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
@@ -3149,7 +3216,7 @@
         <v>25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
@@ -3158,13 +3225,13 @@
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
@@ -3185,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
         <v>80.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
@@ -3244,64 +3311,64 @@
         <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.337</v>
+        <v>0.333</v>
       </c>
       <c r="O16" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
         <v>0.772</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="U16" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
         <v>14.2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.5</v>
+        <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-3.4</v>
+        <v>-2.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
@@ -3313,7 +3380,7 @@
         <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3325,22 +3392,22 @@
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT16" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>24</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3349,19 +3416,19 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3507,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3534,19 +3601,19 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -3578,88 +3645,88 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.227</v>
+        <v>0.238</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="J18" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.414</v>
+        <v>0.418</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.362</v>
+        <v>0.371</v>
       </c>
       <c r="O18" t="n">
         <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="T18" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="U18" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W18" t="n">
         <v>6.9</v>
       </c>
       <c r="X18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.4</v>
       </c>
-      <c r="Y18" t="n">
-        <v>5.2</v>
-      </c>
       <c r="Z18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
         <v>19.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>89.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.1</v>
+        <v>-8</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
         <v>29</v>
@@ -3668,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3680,13 +3747,13 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,19 +3762,19 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>24</v>
@@ -3719,19 +3786,19 @@
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>30</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.476</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,34 +3845,34 @@
         <v>37.9</v>
       </c>
       <c r="J19" t="n">
-        <v>89.3</v>
+        <v>89</v>
       </c>
       <c r="K19" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="N19" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="R19" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="S19" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T19" t="n">
         <v>45.4</v>
@@ -3814,52 +3881,52 @@
         <v>23.1</v>
       </c>
       <c r="V19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W19" t="n">
         <v>9.6</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
         <v>105.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
         <v>13</v>
       </c>
-      <c r="AG19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>14</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>12</v>
@@ -3868,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3883,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT19" t="n">
         <v>6</v>
@@ -3892,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AW19" t="n">
         <v>1</v>
@@ -3904,7 +3971,7 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.474</v>
       </c>
       <c r="H20" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="I20" t="n">
         <v>39.3</v>
       </c>
       <c r="J20" t="n">
-        <v>87.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.45</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M20" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="N20" t="n">
         <v>0.394</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>18</v>
       </c>
       <c r="P20" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R20" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="U20" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="V20" t="n">
         <v>13.7</v>
       </c>
-      <c r="S20" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>13.9</v>
-      </c>
       <c r="W20" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X20" t="n">
         <v>6.9</v>
@@ -4014,25 +4081,25 @@
         <v>20.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>103.4</v>
+        <v>103</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI20" t="n">
         <v>3</v>
@@ -4041,10 +4108,10 @@
         <v>3</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
@@ -4053,10 +4120,10 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
         <v>9</v>
@@ -4065,16 +4132,16 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
         <v>4</v>
@@ -4086,16 +4153,16 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA20" t="n">
         <v>16</v>
       </c>
       <c r="BB20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.286</v>
+        <v>0.25</v>
       </c>
       <c r="H21" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>83.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L21" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O21" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="P21" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
@@ -4175,37 +4242,37 @@
         <v>39</v>
       </c>
       <c r="U21" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W21" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
         <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.8</v>
+        <v>94.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4</v>
+        <v>-4.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
@@ -4214,16 +4281,16 @@
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4259,19 +4326,19 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA21" t="n">
         <v>29</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>82.09999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.467</v>
+        <v>0.463</v>
       </c>
       <c r="L22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M22" t="n">
         <v>18.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.339</v>
+        <v>0.331</v>
       </c>
       <c r="O22" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q22" t="n">
         <v>0.8159999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="S22" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="T22" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="U22" t="n">
         <v>21.3</v>
       </c>
       <c r="V22" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
         <v>7.8</v>
       </c>
       <c r="X22" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD22" t="n">
         <v>22</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>105.1</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4399,22 +4466,22 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4435,19 +4502,19 @@
         <v>2</v>
       </c>
       <c r="AU22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>16</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4459,7 +4526,7 @@
         <v>4</v>
       </c>
       <c r="BC22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.318</v>
+        <v>0.286</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4506,88 +4573,88 @@
         <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>82.09999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L23" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.356</v>
       </c>
       <c r="O23" t="n">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="R23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>16.4</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y23" t="n">
         <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.2</v>
+        <v>-4.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
@@ -4599,10 +4666,10 @@
         <v>16</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>15</v>
@@ -4611,31 +4678,31 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -4670,79 +4737,79 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="H24" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>89</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="O24" t="n">
         <v>16</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="H24" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="L24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="O24" t="n">
-        <v>15.9</v>
-      </c>
       <c r="P24" t="n">
-        <v>22.6</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.703</v>
+        <v>0.699</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="S24" t="n">
         <v>34</v>
       </c>
       <c r="T24" t="n">
-        <v>45.8</v>
+        <v>46.2</v>
       </c>
       <c r="U24" t="n">
         <v>22.7</v>
       </c>
       <c r="V24" t="n">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="AC24" t="n">
         <v>-7.5</v>
@@ -4754,10 +4821,10 @@
         <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -4766,58 +4833,58 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA24" t="n">
         <v>18</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>20</v>
       </c>
       <c r="BB24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -4951,7 +5018,7 @@
         <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4960,22 +5027,22 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ25" t="n">
         <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>19</v>
@@ -4984,10 +5051,10 @@
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>13</v>
@@ -4999,7 +5066,7 @@
         <v>18</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5145,19 +5212,19 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT26" t="n">
         <v>7</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5187,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -5216,94 +5283,94 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>84.09999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L27" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M27" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O27" t="n">
-        <v>18.9</v>
+        <v>18.4</v>
       </c>
       <c r="P27" t="n">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S27" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T27" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U27" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="V27" t="n">
         <v>13.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
         <v>3.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.1</v>
+        <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="n">
         <v>26</v>
       </c>
-      <c r="AE27" t="n">
-        <v>27</v>
-      </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5312,46 +5379,46 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO27" t="n">
         <v>9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>8</v>
       </c>
       <c r="AP27" t="n">
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5369,7 +5436,7 @@
         <v>17</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.493</v>
+        <v>0.491</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M28" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.406</v>
       </c>
       <c r="O28" t="n">
         <v>12.3</v>
@@ -5437,46 +5504,46 @@
         <v>16.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>42</v>
       </c>
       <c r="U28" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
         <v>17.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.9</v>
+        <v>102.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5503,7 +5570,7 @@
         <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5518,37 +5585,37 @@
         <v>17</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>23</v>
@@ -5682,28 +5749,28 @@
         <v>25</v>
       </c>
       <c r="AL29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP29" t="n">
         <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
         <v>17</v>
@@ -5715,7 +5782,7 @@
         <v>15</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5724,7 +5791,7 @@
         <v>18</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
@@ -5733,7 +5800,7 @@
         <v>19</v>
       </c>
       <c r="BC29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -5762,88 +5829,88 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.208</v>
+        <v>0.174</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.434</v>
+        <v>0.429</v>
       </c>
       <c r="L30" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="M30" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.339</v>
+        <v>0.326</v>
       </c>
       <c r="O30" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P30" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.742</v>
+        <v>0.739</v>
       </c>
       <c r="R30" t="n">
         <v>12.1</v>
       </c>
       <c r="S30" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T30" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="V30" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="W30" t="n">
         <v>7.4</v>
       </c>
       <c r="X30" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>93.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-8.699999999999999</v>
+        <v>-10</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF30" t="n">
         <v>30</v>
@@ -5852,16 +5919,16 @@
         <v>30</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5870,52 +5937,52 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
         <v>21</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>29</v>
       </c>
       <c r="AT30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AW30" t="n">
         <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
@@ -6064,10 +6131,10 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT31" t="n">
         <v>20</v>
@@ -6085,13 +6152,13 @@
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-11-2013-14</t>
+          <t>2013-12-11</t>
         </is>
       </c>
     </row>
